--- a/category.xlsx
+++ b/category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://primalg-my.sharepoint.com/personal/ichihara_glocal-biz_jp/Documents/python/gfinder_summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gfinder_lite\gfinder_lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{CD253B32-7876-49AB-965F-923E2C5E8F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28BEFAA4-293E-4271-A09A-28A81EA2B3B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28922289-07BB-4EF9-8B1C-5D9551FD88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F4432DD-F5E6-4109-825A-63EB8EE539B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26550" windowHeight="14295" xr2:uid="{1F4432DD-F5E6-4109-825A-63EB8EE539B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>（自治体）その他資料</t>
   </si>
@@ -159,9 +159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>分野別計画</t>
-  </si>
-  <si>
     <t>（自治体）施政方針・重点施策</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -174,6 +171,56 @@
   </si>
   <si>
     <t>記者会見・記者発表資料</t>
+  </si>
+  <si>
+    <t>その他分野別計画</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デジタル関連計画</t>
+  </si>
+  <si>
+    <t>観光関連計画</t>
+  </si>
+  <si>
+    <t>防災・安全関連計画</t>
+  </si>
+  <si>
+    <t>医療・保健・福祉関連計画</t>
+  </si>
+  <si>
+    <t>男女共同参画・人権関連計画</t>
+  </si>
+  <si>
+    <t>文化・教育関連計画</t>
+  </si>
+  <si>
+    <t>都市計画・インフラ関連計画</t>
+  </si>
+  <si>
+    <t>環境・エネルギー関連計画</t>
+  </si>
+  <si>
+    <t>産業振興関連計画</t>
+  </si>
+  <si>
+    <t>農林水産関連計画</t>
+  </si>
+  <si>
+    <t>地域活性化関連計画</t>
+  </si>
+  <si>
+    <t>自治体運営関連計画</t>
+  </si>
+  <si>
+    <t>公共施設管理関連計画</t>
+    <rPh sb="0" eb="2">
+      <t>コウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -567,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145225F7-B3F7-4CCC-B8DB-4F5A1F5B0892}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -642,10 +687,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -667,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -701,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -709,13 +754,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -768,10 +813,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -782,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -796,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -810,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -824,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -838,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -852,10 +897,10 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -866,10 +911,10 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -880,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -894,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -908,10 +953,10 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -922,10 +967,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -936,10 +981,10 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -950,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
